--- a/DateBase/orders/Nha Thu_2025-10-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-5.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>55_玛丽_undefined_Gerbera L._10/20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01610510104010301555101055102016100</v>
+        <v>01610510104010301555101055102016101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-5.xlsx
@@ -614,7 +614,7 @@
         <v>55_玛丽_undefined_Gerbera L._10/20stems</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01610510104010301555101055102016101</v>
+        <v>016105101040103015551010551020161015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,9 +617,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +696,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016105101040103015551010551020161015</v>
+        <v>0161051010401030155510105510201610151012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-5.xlsx
@@ -698,6 +698,9 @@
       <c r="G2" t="str">
         <v>0161051010401030155510105510201610151012</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
